--- a/artfynd/A 40179-2023.xlsx
+++ b/artfynd/A 40179-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112065865</v>
+        <v>112065861</v>
       </c>
       <c r="B2" t="n">
-        <v>90658</v>
+        <v>88924</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4361</v>
+        <v>256703</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>469609.3891000684</v>
+        <v>469608.0851198517</v>
       </c>
       <c r="R2" t="n">
-        <v>7039805.1614437</v>
+        <v>7039809.195742462</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112065861</v>
+        <v>112065913</v>
       </c>
       <c r="B3" t="n">
-        <v>88924</v>
+        <v>90651</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>256703</v>
+        <v>1968</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>469608.0851198517</v>
+        <v>469597.0866972505</v>
       </c>
       <c r="R3" t="n">
-        <v>7039809.195742462</v>
+        <v>7039828.962988737</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112065913</v>
+        <v>112065865</v>
       </c>
       <c r="B4" t="n">
-        <v>90651</v>
+        <v>90658</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1968</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>469597.0866972505</v>
+        <v>469609.3891000684</v>
       </c>
       <c r="R4" t="n">
-        <v>7039828.962988737</v>
+        <v>7039805.1614437</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/A 40179-2023.xlsx
+++ b/artfynd/A 40179-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112065861</v>
+        <v>112065913</v>
       </c>
       <c r="B2" t="n">
-        <v>88924</v>
+        <v>90651</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>256703</v>
+        <v>1968</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>469608.0851198517</v>
+        <v>469597.0866972505</v>
       </c>
       <c r="R2" t="n">
-        <v>7039809.195742462</v>
+        <v>7039828.962988737</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112065913</v>
+        <v>112065865</v>
       </c>
       <c r="B3" t="n">
-        <v>90651</v>
+        <v>90658</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1968</v>
+        <v>4361</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>469597.0866972505</v>
+        <v>469609.3891000684</v>
       </c>
       <c r="R3" t="n">
-        <v>7039828.962988737</v>
+        <v>7039805.1614437</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112065865</v>
+        <v>112065861</v>
       </c>
       <c r="B4" t="n">
-        <v>90658</v>
+        <v>88924</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>256703</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>469609.3891000684</v>
+        <v>469608.0851198517</v>
       </c>
       <c r="R4" t="n">
-        <v>7039805.1614437</v>
+        <v>7039809.195742462</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/A 40179-2023.xlsx
+++ b/artfynd/A 40179-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112065913</v>
+        <v>112065865</v>
       </c>
       <c r="B2" t="n">
-        <v>90651</v>
+        <v>90658</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1968</v>
+        <v>4361</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>469597.0866972505</v>
+        <v>469609.3891000684</v>
       </c>
       <c r="R2" t="n">
-        <v>7039828.962988737</v>
+        <v>7039805.1614437</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112065865</v>
+        <v>112065913</v>
       </c>
       <c r="B3" t="n">
-        <v>90658</v>
+        <v>90651</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4361</v>
+        <v>1968</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>469609.3891000684</v>
+        <v>469597.0866972505</v>
       </c>
       <c r="R3" t="n">
-        <v>7039805.1614437</v>
+        <v>7039828.962988737</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 40179-2023.xlsx
+++ b/artfynd/A 40179-2023.xlsx
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>469609.3891000684</v>
+        <v>469609</v>
       </c>
       <c r="R2" t="n">
-        <v>7039805.1614437</v>
+        <v>7039805</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -754,19 +754,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +783,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112065913</v>
+        <v>112065861</v>
       </c>
       <c r="B3" t="n">
-        <v>90651</v>
+        <v>88924</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +795,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1968</v>
+        <v>256703</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +824,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>469597.0866972505</v>
+        <v>469608</v>
       </c>
       <c r="R3" t="n">
-        <v>7039828.962988737</v>
+        <v>7039809</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -867,19 +857,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +886,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112065861</v>
+        <v>112065913</v>
       </c>
       <c r="B4" t="n">
-        <v>88924</v>
+        <v>90651</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +898,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>256703</v>
+        <v>1968</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +927,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>469608.0851198517</v>
+        <v>469597</v>
       </c>
       <c r="R4" t="n">
-        <v>7039809.195742462</v>
+        <v>7039829</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -980,19 +960,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 40179-2023.xlsx
+++ b/artfynd/A 40179-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,7 +683,7 @@
         <v>112065865</v>
       </c>
       <c r="B2" t="n">
-        <v>90658</v>
+        <v>90792</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>112065861</v>
       </c>
       <c r="B3" t="n">
-        <v>88924</v>
+        <v>89058</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>112065913</v>
       </c>
       <c r="B4" t="n">
-        <v>90651</v>
+        <v>90785</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -986,6 +986,219 @@
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112370026</v>
+      </c>
+      <c r="B5" t="n">
+        <v>90792</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>nybodarna Österulvsås, Jmt</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>469718</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7039994</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112370019</v>
+      </c>
+      <c r="B6" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>nybodarna Österulvsås, Jmt</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>469645</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7039915</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 40179-2023.xlsx
+++ b/artfynd/A 40179-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112065865</v>
+        <v>112065913</v>
       </c>
       <c r="B2" t="n">
-        <v>90792</v>
+        <v>90799</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4361</v>
+        <v>1968</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>469609</v>
+        <v>469597</v>
       </c>
       <c r="R2" t="n">
-        <v>7039805</v>
+        <v>7039829</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -786,7 +786,7 @@
         <v>112065861</v>
       </c>
       <c r="B3" t="n">
-        <v>89058</v>
+        <v>89072</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -886,10 +886,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112065913</v>
+        <v>112065865</v>
       </c>
       <c r="B4" t="n">
-        <v>90785</v>
+        <v>90806</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -902,21 +902,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1968</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -927,10 +927,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>469597</v>
+        <v>469609</v>
       </c>
       <c r="R4" t="n">
-        <v>7039829</v>
+        <v>7039805</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -989,10 +989,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112370026</v>
+        <v>112370019</v>
       </c>
       <c r="B5" t="n">
-        <v>90792</v>
+        <v>56430</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1005,34 +1005,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>nybodarna Österulvsås, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>469718</v>
+        <v>469645</v>
       </c>
       <c r="R5" t="n">
-        <v>7039994</v>
+        <v>7039915</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1065,6 +1069,11 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1091,10 +1100,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112370019</v>
+        <v>112370026</v>
       </c>
       <c r="B6" t="n">
-        <v>56430</v>
+        <v>90806</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1107,38 +1116,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>4361</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>nybodarna Österulvsås, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>469645</v>
+        <v>469718</v>
       </c>
       <c r="R6" t="n">
-        <v>7039915</v>
+        <v>7039994</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1171,11 +1176,6 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-26</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 40179-2023.xlsx
+++ b/artfynd/A 40179-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112065913</v>
+        <v>112065865</v>
       </c>
       <c r="B2" t="n">
-        <v>90799</v>
+        <v>90806</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1968</v>
+        <v>4361</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>469597</v>
+        <v>469609</v>
       </c>
       <c r="R2" t="n">
-        <v>7039829</v>
+        <v>7039805</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -886,10 +886,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112065865</v>
+        <v>112065913</v>
       </c>
       <c r="B4" t="n">
-        <v>90806</v>
+        <v>90799</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -902,21 +902,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>1968</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -927,10 +927,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>469609</v>
+        <v>469597</v>
       </c>
       <c r="R4" t="n">
-        <v>7039805</v>
+        <v>7039829</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -989,10 +989,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112370019</v>
+        <v>112370026</v>
       </c>
       <c r="B5" t="n">
-        <v>56430</v>
+        <v>90806</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1005,38 +1005,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>nybodarna Österulvsås, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>469645</v>
+        <v>469718</v>
       </c>
       <c r="R5" t="n">
-        <v>7039915</v>
+        <v>7039994</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1069,11 +1065,6 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-26</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1100,10 +1091,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112370026</v>
+        <v>112370019</v>
       </c>
       <c r="B6" t="n">
-        <v>90806</v>
+        <v>56430</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1116,34 +1107,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4361</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>nybodarna Österulvsås, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>469718</v>
+        <v>469645</v>
       </c>
       <c r="R6" t="n">
-        <v>7039994</v>
+        <v>7039915</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1176,6 +1171,11 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
